--- a/4基线控制-申请基线变更时提交/变更管理/变更状态查询/变更申请查询表.xlsx
+++ b/4基线控制-申请基线变更时提交/变更管理/变更状态查询/变更申请查询表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>变更申请编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,20 @@
   </si>
   <si>
     <t>sprint backlog由1.0变更为2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-2015041901</t>
+  </si>
+  <si>
+    <t>2-15/4/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Sp2在SprintPlan中的名字更正为-数据库修改实现及主要UI设计</t>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -401,7 +415,7 @@
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -430,6 +444,20 @@
       </c>
       <c r="D2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/4基线控制-申请基线变更时提交/变更管理/变更状态查询/变更申请查询表.xlsx
+++ b/4基线控制-申请基线变更时提交/变更管理/变更状态查询/变更申请查询表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>变更申请编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,17 @@
     <t>CR-2015041901</t>
   </si>
   <si>
-    <t>2-15/4/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将Sp2在SprintPlan中的名字更正为-数据库修改实现及主要UI设计</t>
   </si>
   <si>
     <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-2015051901</t>
+  </si>
+  <si>
+    <t>Sp5中关于文档文件的上传，下载，查看等功能全部删除,关闭页面提示功能删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,17 +408,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -450,14 +453,28 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>42113</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
